--- a/dist/www/static/files/BaseClientes.xlsx
+++ b/dist/www/static/files/BaseClientes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enunez\Downloads\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Furiux\SundeCloud\frontend\public\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,14 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Cta.</t>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Provincia</t>
+    </r>
   </si>
   <si>
     <t>RazonSocial</t>
@@ -42,17 +49,17 @@
     <t>CUIT</t>
   </si>
   <si>
-    <t>IIBB</t>
-  </si>
-  <si>
-    <t>Provincia</t>
+    <t>CondicionIVA</t>
+  </si>
+  <si>
+    <t>Cuenta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -61,7 +68,11 @@
     </font>
     <font>
       <sz val="6.5"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="6.5"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -118,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -128,7 +139,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,50 +457,48 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K2361">
-    <sortCondition ref="A2"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
